--- a/plotTPD_data programs/HOAc Area_output.xlsx
+++ b/plotTPD_data programs/HOAc Area_output.xlsx
@@ -14,21 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>27-eth</t>
+  </si>
   <si>
     <t>Water</t>
   </si>
   <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>HOAc</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
     <t>CO2</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>HOAc</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>L</t>
@@ -389,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,225 +429,125 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>518705.3196514627</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>7559155.627658309</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>99435997.41739434</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>67920.07553281111</v>
+        <v>1349353.689874392</v>
       </c>
       <c r="F2">
-        <v>7272704.174298634</v>
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>60895.45292703531</v>
+      </c>
+      <c r="H2">
+        <v>282216.8310418345</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>393499.7163249913</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>16285304.90913616</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>123821045.6395933</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1448556.593519853</v>
+        <v>192271.0642769816</v>
       </c>
       <c r="F3">
-        <v>17696685.38336322</v>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>42382.16126869109</v>
+      </c>
+      <c r="H3">
+        <v>70768.42674768422</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>653934.411697357</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>11519653.28738696</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>98870426.9654294</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>87213.76911879997</v>
+        <v>170221.4798536748</v>
       </c>
       <c r="F4">
-        <v>10498211.97716455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B5">
-        <v>565467.7533456746</v>
-      </c>
-      <c r="C5">
-        <v>11300574.43238883</v>
-      </c>
-      <c r="D5">
-        <v>103458236.3863206</v>
-      </c>
-      <c r="E5">
-        <v>55040.57310664213</v>
-      </c>
-      <c r="F5">
-        <v>11024763.71309425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B6">
-        <v>590964.3310813323</v>
-      </c>
-      <c r="C6">
-        <v>14225767.82842833</v>
-      </c>
-      <c r="D6">
-        <v>120815150.7346458</v>
-      </c>
-      <c r="E6">
-        <v>140339.3357125125</v>
-      </c>
-      <c r="F6">
-        <v>13847330.80841186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B7">
-        <v>572406.4411844993</v>
-      </c>
-      <c r="C7">
-        <v>14825150.43739924</v>
-      </c>
-      <c r="D7">
-        <v>117325675.8951211</v>
-      </c>
-      <c r="E7">
-        <v>180901.2622414971</v>
-      </c>
-      <c r="F7">
-        <v>14810338.30983465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B8">
-        <v>454213.2733162518</v>
-      </c>
-      <c r="C8">
-        <v>17302880.56491794</v>
-      </c>
-      <c r="D8">
-        <v>115701734.9101101</v>
-      </c>
-      <c r="E8">
-        <v>414855.1752923161</v>
-      </c>
-      <c r="F8">
-        <v>16797342.8330715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="B9">
-        <v>447588.8131856673</v>
-      </c>
-      <c r="C9">
-        <v>15542524.9196778</v>
-      </c>
-      <c r="D9">
-        <v>127975808.64286</v>
-      </c>
-      <c r="E9">
-        <v>232865.3607306255</v>
-      </c>
-      <c r="F9">
-        <v>15946439.20109162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="B10">
-        <v>400160.6593550168</v>
-      </c>
-      <c r="C10">
-        <v>16786435.51106033</v>
-      </c>
-      <c r="D10">
-        <v>132026105.2731856</v>
-      </c>
-      <c r="E10">
-        <v>524804.6756279754</v>
-      </c>
-      <c r="F10">
-        <v>17368689.36844606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="B11">
-        <v>261696.1680358511</v>
-      </c>
-      <c r="C11">
-        <v>14598358.53052824</v>
-      </c>
-      <c r="D11">
-        <v>128355076.6193482</v>
-      </c>
-      <c r="E11">
-        <v>461516.7666929963</v>
-      </c>
-      <c r="F11">
-        <v>16420435.49287673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="B12">
-        <v>313863.0652982153</v>
-      </c>
-      <c r="C12">
-        <v>16556813.14742308</v>
-      </c>
-      <c r="D12">
-        <v>130265507.3099309</v>
-      </c>
-      <c r="E12">
-        <v>1891824.79233252</v>
-      </c>
-      <c r="F12">
-        <v>17229888.81566741</v>
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>41877.98208514423</v>
+      </c>
+      <c r="H4">
+        <v>33416.59657643169</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/HOAc Area_output.xlsx
+++ b/plotTPD_data programs/HOAc Area_output.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
     <t>27-eth</t>
   </si>
   <si>
+    <t>HOAc</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>HOAc</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>L</t>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,25 +459,25 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>1349353.689874392</v>
+        <v>-1</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>60895.45292703531</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>282216.8310418345</v>
+        <v>51218.63938013145</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>153794.7478142115</v>
       </c>
       <c r="J2">
         <v>-1</v>
       </c>
       <c r="K2">
-        <v>-1</v>
+        <v>37458.77268615671</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,25 +494,25 @@
         <v>-1</v>
       </c>
       <c r="E3">
-        <v>192271.0642769816</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
       <c r="G3">
-        <v>42382.16126869109</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>70768.42674768422</v>
+        <v>60895.45292703531</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1349353.689874392</v>
       </c>
       <c r="J3">
         <v>-1</v>
       </c>
       <c r="K3">
-        <v>-1</v>
+        <v>282216.8310418345</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,25 +529,60 @@
         <v>-1</v>
       </c>
       <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>42382.16126869109</v>
+      </c>
+      <c r="I4">
+        <v>192271.0642769816</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>70768.42674768422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>41877.98208514423</v>
+      </c>
+      <c r="I5">
         <v>170221.4798536748</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>41877.98208514423</v>
-      </c>
-      <c r="H4">
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
         <v>33416.59657643169</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/HOAc Area_output.xlsx
+++ b/plotTPD_data programs/HOAc Area_output.xlsx
@@ -14,39 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HOAc</t>
+  </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>CH4</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t>31-ol</t>
   </si>
   <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>27-eth</t>
-  </si>
-  <si>
-    <t>HOAc</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
@@ -404,16 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,11 +432,8 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,133 +444,25 @@
         <v>-1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1607318.565012615</v>
       </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>60978.88933325125</v>
+      </c>
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-1</v>
       </c>
-      <c r="H2">
-        <v>51218.63938013145</v>
-      </c>
-      <c r="I2">
-        <v>153794.7478142115</v>
-      </c>
       <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>37458.77268615671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>60895.45292703531</v>
-      </c>
-      <c r="I3">
-        <v>1349353.689874392</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>282216.8310418345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>42382.16126869109</v>
-      </c>
-      <c r="I4">
-        <v>192271.0642769816</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>70768.42674768422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>41877.98208514423</v>
-      </c>
-      <c r="I5">
-        <v>170221.4798536748</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>33416.59657643169</v>
+        <v>282318.2582178094</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/HOAc Area_output.xlsx
+++ b/plotTPD_data programs/HOAc Area_output.xlsx
@@ -14,33 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Water</t>
+  </si>
   <si>
     <t>HOAc</t>
   </si>
   <si>
-    <t>14</t>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CO2</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>CO2</t>
   </si>
 </sst>
 </file>
@@ -398,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,20 +414,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,25 +426,213 @@
         <v>-1</v>
       </c>
       <c r="D2">
-        <v>1607318.565012615</v>
+        <v>8061486.0910345</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>7561327.622822704</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>60978.88933325125</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>282318.2582178094</v>
+        <v>53260479.12785688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>19887520.68009411</v>
+      </c>
+      <c r="E3">
+        <v>16282164.97813578</v>
+      </c>
+      <c r="F3">
+        <v>118821528.4979442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>11380037.01593464</v>
+      </c>
+      <c r="E4">
+        <v>11521769.02845364</v>
+      </c>
+      <c r="F4">
+        <v>80137455.6064499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>12431833.00443093</v>
+      </c>
+      <c r="E5">
+        <v>11302843.50130033</v>
+      </c>
+      <c r="F5">
+        <v>90371559.83988744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>15123385.66730704</v>
+      </c>
+      <c r="E6">
+        <v>14221414.84596121</v>
+      </c>
+      <c r="F6">
+        <v>116117562.7339392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>16344229.97077986</v>
+      </c>
+      <c r="E7">
+        <v>14822320.3418464</v>
+      </c>
+      <c r="F7">
+        <v>116962796.7446434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>18381504.65203911</v>
+      </c>
+      <c r="E8">
+        <v>17305511.7539629</v>
+      </c>
+      <c r="F8">
+        <v>112412969.9542895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>17332358.19153716</v>
+      </c>
+      <c r="E9">
+        <v>15539820.14622358</v>
+      </c>
+      <c r="F9">
+        <v>132649852.1243531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>19107628.50224325</v>
+      </c>
+      <c r="E10">
+        <v>16789610.85197198</v>
+      </c>
+      <c r="F10">
+        <v>133421549.2734301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>17792521.86196001</v>
+      </c>
+      <c r="E11">
+        <v>14595190.84249189</v>
+      </c>
+      <c r="F11">
+        <v>121054749.0576133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>19631831.12930312</v>
+      </c>
+      <c r="E12">
+        <v>16555300.36441313</v>
+      </c>
+      <c r="F12">
+        <v>123463669.8591429</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/HOAc Area_output.xlsx
+++ b/plotTPD_data programs/HOAc Area_output.xlsx
@@ -19,16 +19,16 @@
     <t>Water</t>
   </si>
   <si>
-    <t>HOAc</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>H2</t>
   </si>
   <si>
     <t>CO2</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>HOAc</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
   <si>
     <t>L</t>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +423,16 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D2">
-        <v>8061486.0910345</v>
+        <v>7561327.622822704</v>
       </c>
       <c r="E2">
-        <v>7561327.622822704</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>53260479.12785688</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,196 +443,376 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>108719233.339913</v>
       </c>
       <c r="D3">
-        <v>19887520.68009411</v>
+        <v>16282164.97813578</v>
       </c>
       <c r="E3">
-        <v>16282164.97813578</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>118821528.4979442</v>
+        <v>18987260.75799712</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D4">
-        <v>11380037.01593464</v>
+        <v>17787591.33748112</v>
       </c>
       <c r="E4">
-        <v>11521769.02845364</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>80137455.6064499</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D5">
-        <v>12431833.00443093</v>
+        <v>16209052.55288416</v>
       </c>
       <c r="E5">
-        <v>11302843.50130033</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>90371559.83988744</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D6">
-        <v>15123385.66730704</v>
+        <v>17872321.7534636</v>
       </c>
       <c r="E6">
-        <v>14221414.84596121</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>116117562.7339392</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="B7">
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D7">
-        <v>16344229.97077986</v>
+        <v>11521769.02845364</v>
       </c>
       <c r="E7">
-        <v>14822320.3418464</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>116962796.7446434</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="B8">
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>116738344.7276593</v>
       </c>
       <c r="D8">
-        <v>18381504.65203911</v>
+        <v>11302843.50130033</v>
       </c>
       <c r="E8">
-        <v>17305511.7539629</v>
+        <v>-1</v>
       </c>
       <c r="F8">
-        <v>112412969.9542895</v>
+        <v>20834017.68103584</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="B9">
         <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>80137455.6064499</v>
       </c>
       <c r="D9">
-        <v>17332358.19153716</v>
+        <v>14221414.84596121</v>
       </c>
       <c r="E9">
-        <v>15539820.14622358</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>132649852.1243531</v>
+        <v>11380037.01593464</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="B10">
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>90371559.83988744</v>
       </c>
       <c r="D10">
-        <v>19107628.50224325</v>
+        <v>14822320.3418464</v>
       </c>
       <c r="E10">
-        <v>16789610.85197198</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>133421549.2734301</v>
+        <v>12431833.00443093</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>53260479.12785688</v>
       </c>
       <c r="D11">
-        <v>17792521.86196001</v>
+        <v>17305511.7539629</v>
       </c>
       <c r="E11">
-        <v>14595190.84249189</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>121054749.0576133</v>
+        <v>8061486.0910345</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>116117562.7339392</v>
+      </c>
+      <c r="D12">
+        <v>15539820.14622358</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>15123385.66730704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>116962796.7446434</v>
+      </c>
+      <c r="D13">
+        <v>11825985.62663229</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>16344229.97077986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>112412969.9542895</v>
+      </c>
+      <c r="D14">
+        <v>9821637.440598581</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>18381504.65203911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>132649852.1243531</v>
+      </c>
+      <c r="D15">
+        <v>16789610.85197198</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>17332358.19153716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>133421549.2734301</v>
+      </c>
+      <c r="D16">
+        <v>14595190.84249189</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>19107628.50224325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>7.6</v>
       </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>121054749.0576133</v>
+      </c>
+      <c r="D17">
+        <v>16555300.36441313</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>17792521.86196001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>123463669.8591429</v>
+      </c>
+      <c r="D18">
+        <v>15567176.69019014</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
         <v>19631831.12930312</v>
       </c>
-      <c r="E12">
-        <v>16555300.36441313</v>
-      </c>
-      <c r="F12">
-        <v>123463669.8591429</v>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>118821528.4979442</v>
+      </c>
+      <c r="D19">
+        <v>15473100.96034378</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>19887520.68009411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>128566464.3800524</v>
+      </c>
+      <c r="D20">
+        <v>16958663.53070267</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>17826434.91396135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>119972532.8467586</v>
+      </c>
+      <c r="D21">
+        <v>16365996.77554328</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>19805851.48055682</v>
       </c>
     </row>
   </sheetData>
